--- a/data/test1.xlsx
+++ b/data/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E26E2F3-7E22-4857-8966-08A006FD277B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A6561D-4ABE-40B3-8D99-2164A54B87E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="0" windowWidth="18108" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="450" windowWidth="16755" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18963BA2-57F9-495C-AF4F-AFCDFDEA8E80}" type="CELLRANGE">
+                    <a:fld id="{EF7A8114-AF7F-4746-B147-7460DD196EB0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -717,7 +717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C4140E0-AFDD-42C9-BB31-0A011CF8D1FB}" type="CELLRANGE">
+                    <a:fld id="{72AD72DC-2812-49BB-ABFC-80DD6E402C5A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -863,7 +863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B13E011F-528C-48BA-8A97-9E25F8FCB2D5}" type="CELLRANGE">
+                    <a:fld id="{5CDA0CF8-DD9D-4F88-BBCC-345C7EEDF49B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -897,7 +897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AB3B7FA-2FE2-4630-8C13-9AAD0C388414}" type="CELLRANGE">
+                    <a:fld id="{176C0AD6-2F4E-4758-9271-BC98B31C97C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -931,7 +931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D769D4E-0373-4A68-BEF7-514389D3D9D3}" type="CELLRANGE">
+                    <a:fld id="{6696B4FA-F76D-49AB-8533-F402FFFD9B7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -993,7 +993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCEFF0F3-2332-48F3-A565-FA883DD02912}" type="CELLRANGE">
+                    <a:fld id="{F3244A85-46AA-47CA-BA66-5237EBE469B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1291,7 +1291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B46AB7C7-B586-4AF5-887D-38F82130634B}" type="CELLRANGE">
+                    <a:fld id="{8C594443-6165-40EA-BE10-AF729CCFE0EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1353,7 +1353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C84C0A9-40A4-4C57-9E51-6F9151DD43A2}" type="CELLRANGE">
+                    <a:fld id="{8CB402F0-0CDB-4B26-A01F-9870EC7D33FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1387,7 +1387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EC66CE8-142B-4EC2-9A07-F3D927A5A33C}" type="CELLRANGE">
+                    <a:fld id="{317B0DCE-260C-434C-96FF-93CDFC79E9F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1421,7 +1421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9011552-5163-4165-94A9-C9059E15CB72}" type="CELLRANGE">
+                    <a:fld id="{1D1BFC7C-1479-4982-83EB-9BF5ABAE41EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1455,7 +1455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80218EFC-E790-413B-8CB5-3E04720C1297}" type="CELLRANGE">
+                    <a:fld id="{C715C07C-D126-4D8D-AAEE-4CCEEE304086}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1573,7 +1573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3532A4B4-663F-41C2-BC55-2BA9D8D66C07}" type="CELLRANGE">
+                    <a:fld id="{59D435C7-0DD5-46AC-9915-B4E2A277898D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1880,26 +1880,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1997,26 +1977,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2109,562 +2069,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3332,7 +2736,7 @@
         <v>#N/A</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="0">D3*C3</f>
+        <f t="shared" ref="F3:F12" si="0">D3*C3</f>
         <v>1</v>
       </c>
     </row>
@@ -3350,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E13" si="1">(1-D4)*C4</f>
+        <f t="shared" ref="E4:E13" si="1">(1-D4)*C4</f>
         <v>4</v>
       </c>
       <c r="F4" t="e">

--- a/data/test1.xlsx
+++ b/data/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A6561D-4ABE-40B3-8D99-2164A54B87E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6417814E-3787-43E2-87A3-BD2637D94812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="450" windowWidth="16755" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16650" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF7A8114-AF7F-4746-B147-7460DD196EB0}" type="CELLRANGE">
+                    <a:fld id="{879610FA-77C4-4B82-8F00-BFCE70F2F688}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -717,7 +717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72AD72DC-2812-49BB-ABFC-80DD6E402C5A}" type="CELLRANGE">
+                    <a:fld id="{CCF26BB0-E389-49B2-BBC0-71DAD138F784}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -863,7 +863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CDA0CF8-DD9D-4F88-BBCC-345C7EEDF49B}" type="CELLRANGE">
+                    <a:fld id="{DA216D36-6B07-4BDE-827E-BCD9233A5E6E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -897,7 +897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{176C0AD6-2F4E-4758-9271-BC98B31C97C9}" type="CELLRANGE">
+                    <a:fld id="{475FE7C7-EB0F-4FE2-A3F1-5BD0A9415066}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -931,7 +931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6696B4FA-F76D-49AB-8533-F402FFFD9B7F}" type="CELLRANGE">
+                    <a:fld id="{36836389-F927-4AAB-BF4E-173A3F642681}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -993,7 +993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3244A85-46AA-47CA-BA66-5237EBE469B9}" type="CELLRANGE">
+                    <a:fld id="{078BA611-F22E-4566-BF8E-F2206C0BE445}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1291,7 +1291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C594443-6165-40EA-BE10-AF729CCFE0EA}" type="CELLRANGE">
+                    <a:fld id="{9062F5CD-DC25-4383-942B-76A258777CA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1353,7 +1353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CB402F0-0CDB-4B26-A01F-9870EC7D33FC}" type="CELLRANGE">
+                    <a:fld id="{C31F76FC-D848-4E10-9BB5-DA25F8ED0BF1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1387,7 +1387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{317B0DCE-260C-434C-96FF-93CDFC79E9F1}" type="CELLRANGE">
+                    <a:fld id="{EF3539A1-1A6F-459B-8405-F699CD05AD4F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1421,7 +1421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D1BFC7C-1479-4982-83EB-9BF5ABAE41EF}" type="CELLRANGE">
+                    <a:fld id="{5E9F8E73-22FE-4C25-BD8A-D6CE22468CE1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1455,7 +1455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C715C07C-D126-4D8D-AAEE-4CCEEE304086}" type="CELLRANGE">
+                    <a:fld id="{E0973511-1EB4-42FB-9736-14DF1FC6D5EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1573,7 +1573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59D435C7-0DD5-46AC-9915-B4E2A277898D}" type="CELLRANGE">
+                    <a:fld id="{A4EB55BF-82A7-4685-939B-9D3728DFE29C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2318,7 +2318,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2333,8 +2333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6156960" y="327660"/>
-          <a:ext cx="632460" cy="3497580"/>
+          <a:off x="6156960" y="328930"/>
+          <a:ext cx="632460" cy="3468370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2676,12 +2676,12 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>

--- a/data/test1.xlsx
+++ b/data/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6417814E-3787-43E2-87A3-BD2637D94812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C21464-28C6-436D-8EC8-6498903A4BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="16650" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-670" yWindow="200" windowWidth="21740" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{879610FA-77C4-4B82-8F00-BFCE70F2F688}" type="CELLRANGE">
+                    <a:fld id="{EEECD3D0-E098-4320-8EEA-77D484EF0588}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -717,7 +717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCF26BB0-E389-49B2-BBC0-71DAD138F784}" type="CELLRANGE">
+                    <a:fld id="{C755446F-F74B-4B8A-9CFE-6DB02A8EE3DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -863,7 +863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA216D36-6B07-4BDE-827E-BCD9233A5E6E}" type="CELLRANGE">
+                    <a:fld id="{2290C661-9DCC-403A-9EB5-BE3A8EF356E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -897,7 +897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{475FE7C7-EB0F-4FE2-A3F1-5BD0A9415066}" type="CELLRANGE">
+                    <a:fld id="{F30B8601-9F54-47ED-A445-A97E4A513E28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -931,7 +931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36836389-F927-4AAB-BF4E-173A3F642681}" type="CELLRANGE">
+                    <a:fld id="{DF9E6108-795F-4C17-BC8B-D481F1DF2DCB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -993,7 +993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{078BA611-F22E-4566-BF8E-F2206C0BE445}" type="CELLRANGE">
+                    <a:fld id="{5978C6A6-C4FD-44AC-81DF-7E0547313100}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1291,7 +1291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9062F5CD-DC25-4383-942B-76A258777CA0}" type="CELLRANGE">
+                    <a:fld id="{107F782E-2996-408B-80EF-55BB29164F2C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1353,7 +1353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C31F76FC-D848-4E10-9BB5-DA25F8ED0BF1}" type="CELLRANGE">
+                    <a:fld id="{E5A79067-AB72-4CD9-A4E9-30090109F21D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1387,7 +1387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF3539A1-1A6F-459B-8405-F699CD05AD4F}" type="CELLRANGE">
+                    <a:fld id="{CACEB0BA-B27F-4D6A-B7C9-93ADB17A53EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1421,7 +1421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E9F8E73-22FE-4C25-BD8A-D6CE22468CE1}" type="CELLRANGE">
+                    <a:fld id="{F76E8D77-6AA9-48D4-A1BE-125DAD4C23D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1455,7 +1455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0973511-1EB4-42FB-9736-14DF1FC6D5EF}" type="CELLRANGE">
+                    <a:fld id="{A891E4DD-EF74-4187-AB51-D21C2B1775DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1573,7 +1573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4EB55BF-82A7-4685-939B-9D3728DFE29C}" type="CELLRANGE">
+                    <a:fld id="{E2484C18-13A7-472D-A28B-30FE73A714C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2071,27 +2071,1508 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>class0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6E9F4309-5D32-4C9B-8CC6-7A829F8F6DE5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BB30C36F-181D-451E-A2A7-32842B7229D8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{261E2070-9A6D-454E-833E-7EDEBA1BB287}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2FC991A0-59DB-4AD8-B687-8680808C09E3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3D56C645-E159-4D83-A005-C496C3128D14}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0F99168E-04AA-40DA-A0B6-93C996D10D63}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>test1!$A$2:$A$13</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3F66-4B42-883D-0611A04C364B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>class1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A6C0D4C5-7CFD-4B7F-8C46-148DD8F04362}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7EE7DD36-70A1-4A56-BE49-6D61CA47969E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2DB7D67F-B0DE-43C4-B3F1-12C809E7AEDC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3DB4DDF7-F904-44B3-A99E-BCCAE240DD85}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BFB06F46-E990-440B-B118-7E7D108DC85A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{19809631-26D6-4D76-9F42-B58EAD414738}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-3F66-4B42-883D-0611A04C364B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>test1!$A$2:$A$13</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-3F66-4B42-883D-0611A04C364B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2122035104"/>
+        <c:axId val="2122035584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2122035104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122035584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2122035584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122035104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>529590</xdr:colOff>
+      <xdr:colOff>554990</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>16510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:colOff>551180</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3568F6BF-230D-6CDB-23B6-234902FEADF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,23 +3592,255 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87796</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE687DD-8EC0-4B65-A651-A7B8E259DC2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6772275" y="200025"/>
+          <a:ext cx="21121" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="95250">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E02376-6EA9-46FD-B743-F5EC3E372F04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6132850" y="187325"/>
+          <a:ext cx="26650" cy="4095750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="95250">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5895E5D8-331B-4E27-9642-BD45DCE9AD53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4410075" y="2457450"/>
+          <a:ext cx="5267325" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="95250">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888D38F2-81E9-C2BD-38AB-915A43BEB50B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="1466850"/>
+          <a:ext cx="5207000" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="95250">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448309</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E42F173-7CD5-928F-9AF8-30C16667AA9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,14 +3848,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4709160" y="1485900"/>
-          <a:ext cx="4823460" cy="990600"/>
+          <a:off x="4715509" y="1477011"/>
+          <a:ext cx="4819015" cy="970915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2178,22 +3891,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>368299</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436E7CD1-BF17-47DA-A4BC-6CE66B99DE04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,14 +3914,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6819900" y="320040"/>
-          <a:ext cx="2697480" cy="2156460"/>
+          <a:off x="6848474" y="324485"/>
+          <a:ext cx="2663825" cy="2075815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2259,7 +3972,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8F93EE-C62C-4030-8108-82A29B66B320}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +3987,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
@@ -2310,13 +4023,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>64135</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>141605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2325,7 +4038,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97E6F32-3F3F-48C1-BE11-DC362DF57174}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,14 +4046,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6156960" y="328930"/>
-          <a:ext cx="632460" cy="3468370"/>
+          <a:off x="6160135" y="322580"/>
+          <a:ext cx="602615" cy="3411220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
@@ -2373,7 +4086,470 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14773275" y="311150"/>
+          <a:ext cx="57150" cy="3498850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10887075" y="2533650"/>
+          <a:ext cx="4791075" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10887075" y="1501775"/>
+          <a:ext cx="4800600" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10883900" y="1019175"/>
+          <a:ext cx="4800600" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24684</cdr:x>
+      <cdr:y>0.02961</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25727</cdr:x>
+      <cdr:y>0.8656</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3A770E-1DA8-D08E-0E57-34DD9DF72D30}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1352550" y="123825"/>
+          <a:ext cx="57150" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36563</cdr:x>
+      <cdr:y>0.03265</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37606</cdr:x>
+      <cdr:y>0.86864</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA5E2CC-939A-59B4-D91A-301A084044E9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2003425" y="136525"/>
+          <a:ext cx="57150" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47514</cdr:x>
+      <cdr:y>0.03265</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48557</cdr:x>
+      <cdr:y>0.86864</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541B7521-C5D4-B45C-1007-318B1AFBB176}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2603500" y="136525"/>
+          <a:ext cx="57150" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69591</cdr:x>
+      <cdr:y>0.03493</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70634</cdr:x>
+      <cdr:y>0.87092</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CC9F43-40D5-572C-4A27-0A15876DF9C8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3813175" y="146050"/>
+          <a:ext cx="57150" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2675,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/test1.xlsx
+++ b/data/test1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C21464-28C6-436D-8EC8-6498903A4BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B2CA9-D120-4F0B-9248-F5B868EE7F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-670" yWindow="200" windowWidth="21740" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33525" yWindow="1425" windowWidth="21705" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
+    <sheet name="missing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +49,12 @@
   </si>
   <si>
     <t>class1</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -655,7 +662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEECD3D0-E098-4320-8EEA-77D484EF0588}" type="CELLRANGE">
+                    <a:fld id="{3CBCFFD5-8FB0-4C84-B899-10AC7E202F9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -717,7 +724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C755446F-F74B-4B8A-9CFE-6DB02A8EE3DC}" type="CELLRANGE">
+                    <a:fld id="{81DD566F-E6D0-4BBD-B701-EA1F71CFE677}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -863,7 +870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2290C661-9DCC-403A-9EB5-BE3A8EF356E6}" type="CELLRANGE">
+                    <a:fld id="{22038176-52DB-49E9-963A-9658A3835B7C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -897,7 +904,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F30B8601-9F54-47ED-A445-A97E4A513E28}" type="CELLRANGE">
+                    <a:fld id="{51C688D9-8DAD-41F5-8267-620508BE0737}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -931,7 +938,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF9E6108-795F-4C17-BC8B-D481F1DF2DCB}" type="CELLRANGE">
+                    <a:fld id="{8D26D092-2ED4-4449-A36E-700BE77FB6C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -993,7 +1000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5978C6A6-C4FD-44AC-81DF-7E0547313100}" type="CELLRANGE">
+                    <a:fld id="{2630E76E-A366-47B6-BCAF-A636538394BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1291,7 +1298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{107F782E-2996-408B-80EF-55BB29164F2C}" type="CELLRANGE">
+                    <a:fld id="{05DEF6E5-A1E1-43F2-8E99-72FBD58DDF9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1353,7 +1360,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5A79067-AB72-4CD9-A4E9-30090109F21D}" type="CELLRANGE">
+                    <a:fld id="{4F9A8DC8-69F6-4412-9BCF-33E6367FE506}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1387,7 +1394,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CACEB0BA-B27F-4D6A-B7C9-93ADB17A53EF}" type="CELLRANGE">
+                    <a:fld id="{6A4A5D41-6D44-45E3-BD53-377E461E8A57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1421,7 +1428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F76E8D77-6AA9-48D4-A1BE-125DAD4C23D3}" type="CELLRANGE">
+                    <a:fld id="{75E09BBB-355D-44A2-AC47-F14E6A077340}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1455,7 +1462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A891E4DD-EF74-4187-AB51-D21C2B1775DB}" type="CELLRANGE">
+                    <a:fld id="{DC52E8EF-A57B-4BA8-962D-4949D09F3FFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1573,7 +1580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2484C18-13A7-472D-A28B-30FE73A714C5}" type="CELLRANGE">
+                    <a:fld id="{E674C0BD-98CF-4262-9722-E86F29869602}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2135,7 +2142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E9F4309-5D32-4C9B-8CC6-7A829F8F6DE5}" type="CELLRANGE">
+                    <a:fld id="{3AD47349-8C68-4245-A14F-4E4100A619BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2197,7 +2204,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB30C36F-181D-451E-A2A7-32842B7229D8}" type="CELLRANGE">
+                    <a:fld id="{E1B37C7B-C166-4E4B-A797-A5F0A977F340}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2343,7 +2350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{261E2070-9A6D-454E-833E-7EDEBA1BB287}" type="CELLRANGE">
+                    <a:fld id="{9351F55F-1ED7-4C8C-B4C8-98BBE2F6A902}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2377,7 +2384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FC991A0-59DB-4AD8-B687-8680808C09E3}" type="CELLRANGE">
+                    <a:fld id="{1D070726-216F-4650-8029-236EE561B4C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2411,7 +2418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D56C645-E159-4D83-A005-C496C3128D14}" type="CELLRANGE">
+                    <a:fld id="{20B7437C-90FA-40C5-B158-4819C4CDC973}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2473,7 +2480,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F99168E-04AA-40DA-A0B6-93C996D10D63}" type="CELLRANGE">
+                    <a:fld id="{25BB55EE-576F-40EE-BB61-ECDDB019320B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2771,7 +2778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6C0D4C5-7CFD-4B7F-8C46-148DD8F04362}" type="CELLRANGE">
+                    <a:fld id="{1EC043F8-32C6-4DB5-8116-0210609437E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2833,7 +2840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EE7DD36-70A1-4A56-BE49-6D61CA47969E}" type="CELLRANGE">
+                    <a:fld id="{3F6A6957-FDA5-469B-9D87-661EE7A2C7A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2867,7 +2874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2DB7D67F-B0DE-43C4-B3F1-12C809E7AEDC}" type="CELLRANGE">
+                    <a:fld id="{0E695FAE-29BE-4371-8FE3-3297C76BC2A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2901,7 +2908,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DB4DDF7-F904-44B3-A99E-BCCAE240DD85}" type="CELLRANGE">
+                    <a:fld id="{97633B82-5158-42A7-AA0D-907B977B48CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2935,7 +2942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFB06F46-E990-440B-B118-7E7D108DC85A}" type="CELLRANGE">
+                    <a:fld id="{36BA95CD-C06A-4212-A114-0BE3115DDBAB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3053,7 +3060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19809631-26D6-4D76-9F42-B58EAD414738}" type="CELLRANGE">
+                    <a:fld id="{2C0FF59C-ED20-4C5B-BC8D-801DC7933541}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3550,6 +3557,4535 @@
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>missing!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>class0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9C77EDAC-4490-4164-98BB-30257481E36F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{42C456EE-EAC8-4606-96DF-2CE9E4E3FEAF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8FDB52C1-3162-42BE-997B-2F18913D8801}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{16C88874-AEE7-416D-9DAB-7E18ED53605E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BDBA8304-8555-41A8-90D3-8D0C3011956C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>missing!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>missing!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>missing!$A$2:$A$13</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B93-4018-BDF4-7465963C6E7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>missing!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>class1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8B933AD0-FB88-43B6-892D-509D30C25FBF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B0F99574-2251-49D0-8F85-2683F30D5064}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DC3B2FAE-E79D-4479-A9CF-6386EB389F1E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A904440A-9B66-4760-891A-6E1C9F54B90C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6901F0F2-694D-4873-AB98-37BE92387D95}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-1B93-4018-BDF4-7465963C6E7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>missing!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>missing!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>missing!$A$2:$A$13</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1B93-4018-BDF4-7465963C6E7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1933918383"/>
+        <c:axId val="37018975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1933918383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37018975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="37018975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1933918383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>missing!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>class0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{22FF9C6D-EFF4-433A-BBBA-1F1532F3DC8A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{88DBC93A-40C8-4A62-9370-3608D8F5DE78}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CCE50928-AAD1-4912-BA34-0E1806B33A69}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A325B2B9-BEB1-407F-AF78-0CD410CE11ED}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B8AAD377-49EC-4EAB-B9A0-B155D68E1159}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>missing!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>missing!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>missing!$A$2:$A$13</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-06E3-486A-9B01-35A6F1EDC907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>missing!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>class1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{50C209D1-F1A6-4EE2-BD22-3A82492D94C8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{61A78DC4-DCFB-4513-B3C8-CD13A080C397}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3E68C94A-E6CB-4856-A47A-DA86EF816F20}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4B7BF0AE-7F22-4AA0-BF46-0B6635E943B1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EE7C43F9-1082-429C-A1D9-3A6CCB787224}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>missing!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>missing!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>missing!$A$2:$A$13</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-06E3-486A-9B01-35A6F1EDC907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>missing!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dummy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2BA621AC-ED11-4228-B1A5-E0628B1043B5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-06E3-486A-9B01-35A6F1EDC907}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>missing!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>missing!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>missing!$A$2:$A$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-06E3-486A-9B01-35A6F1EDC907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1933918383"/>
+        <c:axId val="37018975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1933918383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37018975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="37018975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1933918383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4552,6 +9088,1004 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30161</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F1E3C7-D080-A1DD-0886-7A1DE367E379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA5C772-335C-6748-20A5-A45BD31DDB1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6362700" y="787400"/>
+          <a:ext cx="0" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A4D966-DFDC-08D3-6C18-3B4D2493CDD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4562475" y="2143125"/>
+          <a:ext cx="4857750" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000C176E-8FFD-4B87-D67D-F1621F8E5960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="1895475"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8D1ADD-F30B-44BD-BDB5-B0DB76B225D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6140450" y="762000"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>411164</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC970B1-611E-4271-8C40-481D9D1223BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE60C5C1-1F85-4A4D-89D3-C0BDA4371C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10601325" y="2143125"/>
+          <a:ext cx="1228725" cy="15875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DD6A66-22AA-4F4F-A549-5B20929FAA28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13049250" y="2139950"/>
+          <a:ext cx="2406650" cy="22225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE2B79D-9357-49B0-A621-AC1F79A90453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12430125" y="2590800"/>
+          <a:ext cx="0" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E300604D-260E-472B-B293-EC1824883B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12430125" y="787400"/>
+          <a:ext cx="0" cy="917575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="289053" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A29D4A1-72DE-4F22-9D97-4644741D90CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10655300" y="1901825"/>
+          <a:ext cx="289053" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>2'</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="321948" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158F9EF2-43A1-4DFB-8FCD-16D90AFB59F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15017750" y="1901825"/>
+          <a:ext cx="321948" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>2''</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="289053" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C909D41E-4B8A-4677-8D30-AA721FC74467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="768350"/>
+          <a:ext cx="289053" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>6'</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="321948" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C216D3-F148-416D-B62F-DD3FCB8C52A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12446000" y="3609975"/>
+          <a:ext cx="321948" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>6''</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BD977C-39E6-2A20-C5CF-800401F3BDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12084050" y="806450"/>
+          <a:ext cx="12700" cy="3146425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC01637-F40B-442D-A6FA-C575F22BA261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12830175" y="809625"/>
+          <a:ext cx="6350" cy="3140075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CE4AC7-7358-4477-BFFB-632A64ED4F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10601325" y="2854325"/>
+          <a:ext cx="4886325" cy="22225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4B9C97-AF10-4D15-853E-FC3E96931499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10601325" y="2371725"/>
+          <a:ext cx="4895850" cy="15875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9AD125C-5594-4A8E-B2E1-D1EEFDB14463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10601325" y="1873250"/>
+          <a:ext cx="4895850" cy="22225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4851,8 +10385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5130,4 +10664,333 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F713B57-CE02-461D-AA0D-CF0ED73845B4}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>(1-D2)*C2</f>
+        <v>4</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F12" si="0">D3*C3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E13" si="1">(1-D9)*C9</f>
+        <v>4</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/test1.xlsx
+++ b/data/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B2CA9-D120-4F0B-9248-F5B868EE7F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C21D2-3151-4168-AE0B-C17BE8130D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33525" yWindow="1425" windowWidth="21705" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="17170" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -538,8 +545,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -662,7 +671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CBCFFD5-8FB0-4C84-B899-10AC7E202F9F}" type="CELLRANGE">
+                    <a:fld id="{3538942C-0E4D-4C76-B01C-1810543D9B50}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -724,7 +733,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81DD566F-E6D0-4BBD-B701-EA1F71CFE677}" type="CELLRANGE">
+                    <a:fld id="{DC67299D-D283-4821-B1BB-52F9C988FE8A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -870,7 +879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22038176-52DB-49E9-963A-9658A3835B7C}" type="CELLRANGE">
+                    <a:fld id="{21B7AC7C-FA02-40DA-9DC3-2EF6574EF036}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -904,7 +913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51C688D9-8DAD-41F5-8267-620508BE0737}" type="CELLRANGE">
+                    <a:fld id="{A709848D-7D89-4718-9B78-9EEFE0363DA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -938,7 +947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D26D092-2ED4-4449-A36E-700BE77FB6C5}" type="CELLRANGE">
+                    <a:fld id="{509B02E3-772D-4BB6-AB9D-93A2CD168762}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1000,7 +1009,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2630E76E-A366-47B6-BCAF-A636538394BA}" type="CELLRANGE">
+                    <a:fld id="{F847DEB0-D562-4F60-9C6C-ACDACEE9FBE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1298,7 +1307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05DEF6E5-A1E1-43F2-8E99-72FBD58DDF9A}" type="CELLRANGE">
+                    <a:fld id="{96971A91-FF8B-4123-895F-FC913CD522FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1360,7 +1369,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F9A8DC8-69F6-4412-9BCF-33E6367FE506}" type="CELLRANGE">
+                    <a:fld id="{20CD1F4A-1D9F-4ED5-BAAD-EC7BEFC41486}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1394,7 +1403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A4A5D41-6D44-45E3-BD53-377E461E8A57}" type="CELLRANGE">
+                    <a:fld id="{8CFF497A-7630-4CC5-ADDF-3DD049B4EBDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1428,7 +1437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75E09BBB-355D-44A2-AC47-F14E6A077340}" type="CELLRANGE">
+                    <a:fld id="{F12F081C-25AC-4F0C-8A91-0DBE7525BC0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1462,7 +1471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC52E8EF-A57B-4BA8-962D-4949D09F3FFD}" type="CELLRANGE">
+                    <a:fld id="{36E9A645-82F7-4AD4-B490-3F1F1F35443C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1580,7 +1589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E674C0BD-98CF-4262-9722-E86F29869602}" type="CELLRANGE">
+                    <a:fld id="{57952FD3-DB5A-4F95-B0C7-95A5BC33D55F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2142,7 +2151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AD47349-8C68-4245-A14F-4E4100A619BE}" type="CELLRANGE">
+                    <a:fld id="{CC6C5DAB-AA89-46B3-9612-2A6CFC42E0DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2204,7 +2213,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1B37C7B-C166-4E4B-A797-A5F0A977F340}" type="CELLRANGE">
+                    <a:fld id="{2467C78E-8C27-4965-8828-D9485D01D41F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2350,7 +2359,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9351F55F-1ED7-4C8C-B4C8-98BBE2F6A902}" type="CELLRANGE">
+                    <a:fld id="{3AD48972-4601-4439-B70A-8AD3B77E605A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2384,7 +2393,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D070726-216F-4650-8029-236EE561B4C0}" type="CELLRANGE">
+                    <a:fld id="{8D3B1CF0-E15E-4B96-860A-90733A173E53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2418,7 +2427,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20B7437C-90FA-40C5-B158-4819C4CDC973}" type="CELLRANGE">
+                    <a:fld id="{5993444B-C228-447F-ACBA-5FFC5F63F745}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2480,7 +2489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25BB55EE-576F-40EE-BB61-ECDDB019320B}" type="CELLRANGE">
+                    <a:fld id="{F8374C05-31B6-4743-A444-9E27398967F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2778,7 +2787,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EC043F8-32C6-4DB5-8116-0210609437E8}" type="CELLRANGE">
+                    <a:fld id="{F19F6FA3-EFEB-4B88-A043-0E6BA02F95D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2840,7 +2849,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F6A6957-FDA5-469B-9D87-661EE7A2C7A4}" type="CELLRANGE">
+                    <a:fld id="{04549B0A-04D0-4740-8FC2-E0B52F6F10B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2874,7 +2883,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E695FAE-29BE-4371-8FE3-3297C76BC2A3}" type="CELLRANGE">
+                    <a:fld id="{DCC76548-DDCD-414F-8699-B2D799359A76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2908,7 +2917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97633B82-5158-42A7-AA0D-907B977B48CB}" type="CELLRANGE">
+                    <a:fld id="{E0979A6E-518B-438B-9096-54671EED0B0D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2942,7 +2951,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36BA95CD-C06A-4212-A114-0BE3115DDBAB}" type="CELLRANGE">
+                    <a:fld id="{B6F603EF-7166-4863-8006-165FD8C17891}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3060,7 +3069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C0FF59C-ED20-4C5B-BC8D-801DC7933541}" type="CELLRANGE">
+                    <a:fld id="{5443A359-074D-47CA-86FC-17229B882E62}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3623,7 +3632,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C77EDAC-4490-4164-98BB-30257481E36F}" type="CELLRANGE">
+                    <a:fld id="{39C7C1F1-343D-4D2F-81C5-466AA12F121F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3825,7 +3834,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42C456EE-EAC8-4606-96DF-2CE9E4E3FEAF}" type="CELLRANGE">
+                    <a:fld id="{566678CE-D081-4B60-8D55-4914F1406913}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3859,7 +3868,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FDB52C1-3162-42BE-997B-2F18913D8801}" type="CELLRANGE">
+                    <a:fld id="{C11ABF61-6632-4CCB-8A19-D4404E5ADD28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3893,7 +3902,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16C88874-AEE7-416D-9DAB-7E18ED53605E}" type="CELLRANGE">
+                    <a:fld id="{ADA8FDF7-E5CF-402A-99F1-9B8540D48087}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3955,7 +3964,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDBA8304-8555-41A8-90D3-8D0C3011956C}" type="CELLRANGE">
+                    <a:fld id="{59292C25-53F5-4E44-882C-9DAFB807F240}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4236,7 +4245,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B933AD0-FB88-43B6-892D-509D30C25FBF}" type="CELLRANGE">
+                    <a:fld id="{87F08606-8033-432F-BDF1-39CEB76AE1B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4298,7 +4307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0F99574-2251-49D0-8F85-2683F30D5064}" type="CELLRANGE">
+                    <a:fld id="{E41D0EF7-581F-4C1B-89DF-95D039A37730}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4332,7 +4341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC3B2FAE-E79D-4479-A9CF-6386EB389F1E}" type="CELLRANGE">
+                    <a:fld id="{56F21641-F60E-4B80-A291-A80EB513E061}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4366,7 +4375,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A904440A-9B66-4760-891A-6E1C9F54B90C}" type="CELLRANGE">
+                    <a:fld id="{676E8DB7-D72D-4878-81CE-2967A9F610AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4512,7 +4521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6901F0F2-694D-4873-AB98-37BE92387D95}" type="CELLRANGE">
+                    <a:fld id="{E3AB536B-42A7-49E2-BE53-7B465C79CA20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5031,7 +5040,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22FF9C6D-EFF4-433A-BBBA-1F1532F3DC8A}" type="CELLRANGE">
+                    <a:fld id="{D17F77C5-04AD-4BA0-A305-CC58C1001C9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5233,7 +5242,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88DBC93A-40C8-4A62-9370-3608D8F5DE78}" type="CELLRANGE">
+                    <a:fld id="{160D5D88-FF5B-49C4-A3AD-0DA93FBAD425}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5267,7 +5276,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCE50928-AAD1-4912-BA34-0E1806B33A69}" type="CELLRANGE">
+                    <a:fld id="{61A3C23E-BE84-427A-9463-D5926D3C6756}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5301,7 +5310,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A325B2B9-BEB1-407F-AF78-0CD410CE11ED}" type="CELLRANGE">
+                    <a:fld id="{93028167-F6A6-46D0-BF22-2F24FA9BF2A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5363,7 +5372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8AAD377-49EC-4EAB-B9A0-B155D68E1159}" type="CELLRANGE">
+                    <a:fld id="{B8DABA0A-4BA7-408A-94AE-EC73304B4A7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5644,7 +5653,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50C209D1-F1A6-4EE2-BD22-3A82492D94C8}" type="CELLRANGE">
+                    <a:fld id="{9CBC0EBD-12BC-4218-AD67-BECBDF8D5DF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5706,7 +5715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61A78DC4-DCFB-4513-B3C8-CD13A080C397}" type="CELLRANGE">
+                    <a:fld id="{73E4B1A5-E3A8-4DAC-8CD1-4DE3ECF71A9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5740,7 +5749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E68C94A-E6CB-4856-A47A-DA86EF816F20}" type="CELLRANGE">
+                    <a:fld id="{2B63717A-70AB-417D-966F-9F39E509D40A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5774,7 +5783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B7BF0AE-7F22-4AA0-BF46-0B6635E943B1}" type="CELLRANGE">
+                    <a:fld id="{AC4B3E15-636D-4452-9E3B-47205623CC5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5920,7 +5929,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE7C43F9-1082-429C-A1D9-3A6CCB787224}" type="CELLRANGE">
+                    <a:fld id="{2791FBF2-36C3-4043-9B51-60FAD483EAAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6537,7 +6546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BA621AC-ED11-4228-B1A5-E0628B1043B5}" type="CELLRANGE">
+                    <a:fld id="{06A9261A-2314-4F03-A668-9AC842D09C00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10087,9 +10096,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10127,7 +10136,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10233,7 +10242,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10375,7 +10384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10385,8 +10394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10401,10 +10410,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10421,11 +10430,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>(1-D2)*C2</f>
         <v>4</v>
       </c>
-      <c r="F2" t="e">
+      <c r="F2" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10442,10 +10451,10 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="e">
+      <c r="E3" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F12" si="0">D3*C3</f>
         <v>1</v>
       </c>
@@ -10463,11 +10472,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E13" si="1">(1-D4)*C4</f>
         <v>4</v>
       </c>
-      <c r="F4" t="e">
+      <c r="F4" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10484,10 +10493,10 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="e">
+      <c r="E5" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10505,10 +10514,10 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="e">
+      <c r="E6" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -10526,10 +10535,10 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="e">
+      <c r="E7" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10547,10 +10556,10 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="e">
+      <c r="E8" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -10568,11 +10577,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F9" t="e">
+      <c r="F9" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10589,11 +10598,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10" t="e">
+      <c r="F10" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10610,11 +10619,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F11" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10631,10 +10640,10 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="e">
+      <c r="E12" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10652,11 +10661,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F13" t="e">
+      <c r="F13" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10670,7 +10679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F713B57-CE02-461D-AA0D-CF0ED73845B4}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
